--- a/milestones/summer24--sft221-nbb-2/Documents/Testing/Tests Documents/traceability-matrix.xlsx
+++ b/milestones/summer24--sft221-nbb-2/Documents/Testing/Tests Documents/traceability-matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyak0\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\SCHOOL\summer-2024\sft221-nbb\milestones\summer24--sft221-nbb-2\Documents\Testing\Tests Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE09B94-38B7-4D2D-BEDC-764F3FDE9A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC41F9A-59AE-4250-A94F-859210765EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="79">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -67,109 +67,223 @@
     <t>Tests</t>
   </si>
   <si>
-    <t>R001 : Each truck can hold up to 2500 kilograms of cargo.</t>
-  </si>
-  <si>
-    <t>R002 : Each truck can carry up to 100 cubic meters of boxes</t>
-  </si>
-  <si>
-    <t>R003: The system should allow the definition of truck routes within a 25x25 grid representing the city</t>
-  </si>
-  <si>
-    <t>R004: The system should provide a method to input and store routes for each truck.</t>
-  </si>
-  <si>
-    <t>R005: The system should allow for the input and storage of package details, including weight, volume, and destination.</t>
-  </si>
-  <si>
-    <t>R006: The system should check that the package does not exceed the truck’s remaining capacity (both in weight and volume) before assigning it to a truck.</t>
-  </si>
-  <si>
-    <t>R007: The system should determine the optimal truck for delivery based on:
+    <t>R008</t>
+  </si>
+  <si>
+    <t>R009</t>
+  </si>
+  <si>
+    <t>R010</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>BB_SHP001</t>
+  </si>
+  <si>
+    <t>BB_SHP002</t>
+  </si>
+  <si>
+    <t>BB_SHP003</t>
+  </si>
+  <si>
+    <t>BB_SHP004</t>
+  </si>
+  <si>
+    <t>BB_DST001</t>
+  </si>
+  <si>
+    <t>BB_DST002</t>
+  </si>
+  <si>
+    <t>BB_DST003</t>
+  </si>
+  <si>
+    <t>BB_DST004</t>
+  </si>
+  <si>
+    <t>BB_IVD001</t>
+  </si>
+  <si>
+    <t>BB_IVD002</t>
+  </si>
+  <si>
+    <t>BB_IVD003</t>
+  </si>
+  <si>
+    <t>BB_IVD004</t>
+  </si>
+  <si>
+    <t>BB_FTFS001</t>
+  </si>
+  <si>
+    <t>BB_FTFS002</t>
+  </si>
+  <si>
+    <t>BB_FTFS003</t>
+  </si>
+  <si>
+    <t>BB_FTFS004</t>
+  </si>
+  <si>
+    <t>WB_DST001</t>
+  </si>
+  <si>
+    <t>WB_DST002</t>
+  </si>
+  <si>
+    <t>WB_DST003</t>
+  </si>
+  <si>
+    <t>WB_DST004</t>
+  </si>
+  <si>
+    <t>WB_IVD001</t>
+  </si>
+  <si>
+    <t>WB_IVD002</t>
+  </si>
+  <si>
+    <t>WB_IVD003</t>
+  </si>
+  <si>
+    <t>WB_IVD004</t>
+  </si>
+  <si>
+    <t>WB_FTFS001</t>
+  </si>
+  <si>
+    <t>WB_FTFS002</t>
+  </si>
+  <si>
+    <t>WB_FTFS003</t>
+  </si>
+  <si>
+    <t>WB_FTFS004</t>
+  </si>
+  <si>
+    <t>WB_SHP001</t>
+  </si>
+  <si>
+    <t>WB_SHP002</t>
+  </si>
+  <si>
+    <t>WB_SHP003</t>
+  </si>
+  <si>
+    <t>WB_SHP004</t>
+  </si>
+  <si>
+    <t>R001 : Each truck can hold up to 2500 kilograms of cargo.
+R002 : Each truck can carry up to 100 cubic meters of boxes
+R003: The system should allow the definition of truck routes within a 25x25 grid representing the city
+R004: The system should provide a method to input and store routes for each truck.
+R005: The system should allow for the input and storage of package details, including weight, volume, and destination.
+R006: The system should check that the package does not exceed the truck’s remaining capacity (both in weight and volume) before assigning it to a truck.
+"R007: The system should determine the optimal truck for delivery based on:
 - Proximity to the destination.
 - Remaining weight capacity.
-- Remaining volume capacity.</t>
-  </si>
-  <si>
-    <t>R009: The A* algorithm should calculate the shortest path from the truck’s current location to the package's destination.</t>
-  </si>
-  <si>
-    <t>R010: The algorithm should account for obstacles in the grid, such as buildings, which the trucks cannot pass through.</t>
-  </si>
-  <si>
-    <t>R008</t>
-  </si>
-  <si>
-    <t>R009</t>
-  </si>
-  <si>
-    <t>R010</t>
-  </si>
-  <si>
-    <t>FT001</t>
-  </si>
-  <si>
-    <t>FT002</t>
-  </si>
-  <si>
-    <t>FT003</t>
-  </si>
-  <si>
-    <t>FT004</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>FDV01</t>
-  </si>
-  <si>
-    <t>FDV02</t>
-  </si>
-  <si>
-    <t>FDV03</t>
-  </si>
-  <si>
-    <t>FDV04</t>
-  </si>
-  <si>
-    <t>R008: The system should ensure the delivery destination is a valid destination.</t>
-  </si>
-  <si>
-    <t>FS001</t>
-  </si>
-  <si>
-    <t>FS002</t>
-  </si>
-  <si>
-    <t>FS003</t>
-  </si>
-  <si>
-    <t>FS004</t>
-  </si>
-  <si>
-    <t>FP001</t>
-  </si>
-  <si>
-    <t>FP002</t>
-  </si>
-  <si>
-    <t>FP003</t>
-  </si>
-  <si>
-    <t>FP004</t>
-  </si>
-  <si>
-    <t>FD001</t>
-  </si>
-  <si>
-    <t>FD002</t>
-  </si>
-  <si>
-    <t>FD003</t>
-  </si>
-  <si>
-    <t>FD004</t>
+- Remaining volume capacity."
+R008: The system should ensure the delivery destination is a valid destination.
+R009: The A* algorithm should calculate the shortest path from the truck’s current location to the package's destination.
+R010: The algorithm should account for obstacles in the grid, such as buildings, which the trucks cannot pass through.</t>
+  </si>
+  <si>
+    <t>INT_IVP001</t>
+  </si>
+  <si>
+    <t>INT_IVP002</t>
+  </si>
+  <si>
+    <t>INT_IVP003</t>
+  </si>
+  <si>
+    <t>INT_IVP004</t>
+  </si>
+  <si>
+    <t>INT_IVD001</t>
+  </si>
+  <si>
+    <t>INT_IVD002</t>
+  </si>
+  <si>
+    <t>INT_IVD003</t>
+  </si>
+  <si>
+    <t>INT_IVD004</t>
+  </si>
+  <si>
+    <t>INT_CAS001</t>
+  </si>
+  <si>
+    <t>INT_CAS002</t>
+  </si>
+  <si>
+    <t>INT_CAS003</t>
+  </si>
+  <si>
+    <t>INT_CAS004</t>
+  </si>
+  <si>
+    <t>INT_FTFS001</t>
+  </si>
+  <si>
+    <t>INT_FTFS002</t>
+  </si>
+  <si>
+    <t>INT_FTFS003</t>
+  </si>
+  <si>
+    <t>INT_FTFS004</t>
+  </si>
+  <si>
+    <t>ACC_IVD001</t>
+  </si>
+  <si>
+    <t>ACC_CAS001</t>
+  </si>
+  <si>
+    <t>ACC_SHP001</t>
+  </si>
+  <si>
+    <t>ACC_FTFS001</t>
+  </si>
+  <si>
+    <t>ACC_FTFS002</t>
+  </si>
+  <si>
+    <t>ACC_FTFS003</t>
+  </si>
+  <si>
+    <t>ACC_FTFS004</t>
+  </si>
+  <si>
+    <t>ACC_FTFS005</t>
+  </si>
+  <si>
+    <t>BB_IVP001</t>
+  </si>
+  <si>
+    <t>BB_IVP002</t>
+  </si>
+  <si>
+    <t>BB_IVP003</t>
+  </si>
+  <si>
+    <t>BB_IVP004</t>
+  </si>
+  <si>
+    <t>WB_IVP001</t>
+  </si>
+  <si>
+    <t>WB_IVP002</t>
+  </si>
+  <si>
+    <t>WB_IVP003</t>
+  </si>
+  <si>
+    <t>WB_IVP004</t>
   </si>
 </sst>
 </file>
@@ -217,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -260,11 +374,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -279,9 +404,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -289,10 +411,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,39 +745,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" customWidth="1"/>
-    <col min="14" max="14" width="58.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="14" max="14" width="175.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -664,188 +802,177 @@
         <v>8</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="N3" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="N4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="N5" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="N6" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="7" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="N7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="N8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="N9" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="37.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -855,112 +982,108 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="N10" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="N11" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="N12" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -970,15 +1093,16 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -988,15 +1112,16 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1006,15 +1131,16 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1024,15 +1150,16 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1041,18 +1168,19 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1061,18 +1189,19 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1081,18 +1210,19 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1101,18 +1231,19 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1121,20 +1252,21 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1143,20 +1275,21 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1165,20 +1298,21 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1187,21 +1321,1053 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="6"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="12"/>
+      <c r="B74" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="N3:N26"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A26"/>
+    <mergeCell ref="A3:A74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1436,20 +2602,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0023dede-03c6-4dec-9587-cb2bcfd4f7e9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0023dede-03c6-4dec-9587-cb2bcfd4f7e9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1472,14 +2638,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8886B65B-E0B4-4FCE-BA64-CBE73E3185E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33E62813-1325-47F3-9C7B-C456688ABD63}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="34ef11a1-05d6-4d89-912a-b192ffc53a3f"/>
@@ -1494,4 +2652,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8886B65B-E0B4-4FCE-BA64-CBE73E3185E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>